--- a/Design document/Excels/khen_thuong.xlsx
+++ b/Design document/Excels/khen_thuong.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -101,51 +101,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nguyễn Quang Bách</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lê Đức Duy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K59CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Ngọc Duy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trịnh Quốc Đạt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lương Văn Đông</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lê Đình Dũng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K59CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngô Tùng Dương</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Minh Dương</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vũ Đình Đúng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Minh Công</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K59N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Thị Dung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Việt Dũng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phạm Tùng Dương</t>
   </si>
 </sst>
 </file>
@@ -254,7 +209,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -305,26 +260,6 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -344,18 +279,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -695,246 +630,6 @@
         <v>23</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13" t="n">
-        <v>14020655</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="14" t="n">
-        <v>35413</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="13" t="n">
-        <v>14020065</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="14" t="n">
-        <v>35348</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="13" t="n">
-        <v>14020103</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="14" t="n">
-        <v>35394</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="13" t="n">
-        <v>14020113</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="14" t="n">
-        <v>34717</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="15" t="n">
-        <v>14020071</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="16" t="n">
-        <v>35271</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="15" t="n">
-        <v>14020080</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="16" t="n">
-        <v>35373</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="15" t="n">
-        <v>14020657</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="16" t="n">
-        <v>35145</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="15" t="n">
-        <v>14020117</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="16" t="n">
-        <v>32470</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="15" t="n">
-        <v>14020041</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="16" t="n">
-        <v>35325</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="15" t="n">
-        <v>14020580</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="16" t="n">
-        <v>35359</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="15" t="n">
-        <v>14020076</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="16" t="n">
-        <v>35308</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="15" t="n">
-        <v>14020083</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="16" t="n">
-        <v>35222</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="0" t="n">
         <v>2</v>
       </c>
     </row>
